--- a/src/main/resources/LogInData.xlsx
+++ b/src/main/resources/LogInData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3AC775-3648-4282-82FA-6EFCC88FE96B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D93D5A-B97C-402C-9337-22ED67402D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LogInSheet_Valid" sheetId="2" r:id="rId1"/>
-    <sheet name="LogInSheet_InValid" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="LogInSheet_InValid" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -503,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0818FD6-F89D-4EE7-B0C6-90E241690119}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -579,10 +580,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD9789A0-2B33-41BA-B048-B4BE628234B2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA5F75B-C74B-43F2-97D0-C3B62D35DED6}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/LogInData.xlsx
+++ b/src/main/resources/LogInData.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D93D5A-B97C-402C-9337-22ED67402D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3AC775-3648-4282-82FA-6EFCC88FE96B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LogInSheet_Valid" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
-    <sheet name="LogInSheet_InValid" sheetId="4" r:id="rId3"/>
+    <sheet name="LogInSheet_InValid" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -504,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0818FD6-F89D-4EE7-B0C6-90E241690119}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -580,24 +579,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD9789A0-2B33-41BA-B048-B4BE628234B2}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA5F75B-C74B-43F2-97D0-C3B62D35DED6}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/LogInData.xlsx
+++ b/src/main/resources/LogInData.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3AC775-3648-4282-82FA-6EFCC88FE96B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDBC9B6-85DF-490D-B268-CA145D32F6C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -504,7 +504,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -583,7 +583,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
